--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/20/seed1/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>12.01519999999999</v>
+        <v>11.93779999999999</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.837199999999998</v>
+        <v>-5.996099999999999</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -496,16 +496,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.12860000000001</v>
+        <v>-21.19120000000002</v>
       </c>
       <c r="B4" t="n">
-        <v>4.799000000000006</v>
+        <v>4.674900000000005</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.408800000000006</v>
+        <v>-7.638100000000001</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.582099999999996</v>
+        <v>5.5404</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -525,15 +525,15 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.22569999999998</v>
+        <v>13.09339999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.33890000000002</v>
+        <v>-21.57190000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>5.571599999999997</v>
+        <v>5.551899999999998</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.4157</v>
+        <v>-21.4543</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.39290000000002</v>
+        <v>-21.36760000000002</v>
       </c>
       <c r="B8" t="n">
-        <v>5.019399999999999</v>
+        <v>5.1829</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.496399999999998</v>
+        <v>-8.367899999999995</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.155200000000001</v>
+        <v>-8.267499999999998</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.357199999999995</v>
+        <v>-8.352799999999997</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.52890000000002</v>
+        <v>-21.37740000000002</v>
       </c>
       <c r="B16" t="n">
-        <v>4.975500000000004</v>
+        <v>5.150000000000003</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.898499999999991</v>
+        <v>-7.866799999999995</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.03010000000003</v>
+        <v>-22.20780000000003</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -780,12 +780,12 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>13.31389999999998</v>
+        <v>13.29619999999998</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.73289999999999</v>
+        <v>-20.50699999999999</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.163900000000007</v>
+        <v>5.094000000000005</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.975099999999997</v>
+        <v>-7.868399999999999</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
